--- a/testdata/saucedemo.xlsx
+++ b/testdata/saucedemo.xlsx
@@ -386,7 +386,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>

--- a/testdata/saucedemo.xlsx
+++ b/testdata/saucedemo.xlsx
@@ -7,8 +7,8 @@
     <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
-    <sheet name="saucedemo" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Login" sheetId="1" r:id="rId1"/>
+    <sheet name="selectProductByName" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>standard_user</t>
   </si>
@@ -30,22 +30,25 @@
     <t>password</t>
   </si>
   <si>
-    <t>performance_glitc_user</t>
-  </si>
-  <si>
-    <t>locked_out_use</t>
-  </si>
-  <si>
-    <t>problm_user</t>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Sauce Labs Backpack</t>
+  </si>
+  <si>
+    <t>Sauce Labs Fleece Jacket</t>
+  </si>
+  <si>
+    <t>Products</t>
   </si>
   <si>
     <t>invalid</t>
   </si>
   <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>type</t>
+    <t>standard</t>
   </si>
 </sst>
 </file>
@@ -384,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -398,7 +401,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -409,10 +412,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
@@ -420,34 +423,12 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
@@ -459,12 +440,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
